--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvrl1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.42119933333333</v>
+        <v>19.92674333333333</v>
       </c>
       <c r="N2">
-        <v>73.263598</v>
+        <v>59.78023</v>
       </c>
       <c r="O2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="P2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
       <c r="Q2">
-        <v>44.14375177453356</v>
+        <v>36.01957460708556</v>
       </c>
       <c r="R2">
-        <v>397.293765970802</v>
+        <v>324.1761714637701</v>
       </c>
       <c r="S2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135736</v>
       </c>
       <c r="T2">
-        <v>0.4086816635579248</v>
+        <v>0.3447897148135735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="P3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
       <c r="Q3">
         <v>60.52076864357</v>
@@ -632,10 +632,10 @@
         <v>544.6869177921301</v>
       </c>
       <c r="S3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339875</v>
       </c>
       <c r="T3">
-        <v>0.5602996441124273</v>
+        <v>0.5793221821339873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.853554333333333</v>
+        <v>4.385869666666667</v>
       </c>
       <c r="N4">
-        <v>5.560663</v>
+        <v>13.157609</v>
       </c>
       <c r="O4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="P4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
       <c r="Q4">
-        <v>3.350484195081889</v>
+        <v>7.927896547510112</v>
       </c>
       <c r="R4">
-        <v>30.154357755737</v>
+        <v>71.35106892759102</v>
       </c>
       <c r="S4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243907</v>
       </c>
       <c r="T4">
-        <v>0.03101869232964781</v>
+        <v>0.07588810305243905</v>
       </c>
     </row>
   </sheetData>
